--- a/server/uploads/templates/Template-import-mapel.xlsx
+++ b/server/uploads/templates/Template-import-mapel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galih-2025\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Galih-2025\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783849D6-22B4-40DE-9438-1732D07B7080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717854A6-57D7-45A5-A594-4E732CB8CD5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5DAFBB2E-9CFB-46BE-B09B-76EE4B13E39D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NO.</t>
   </si>
@@ -72,19 +72,7 @@
     <t>PERTEMUAN 10</t>
   </si>
   <si>
-    <t>JUMLAH INDIKATOR</t>
-  </si>
-  <si>
-    <t>DIMAS ARYAGUNA RAMADHAN</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
     <t>MAPEL</t>
-  </si>
-  <si>
-    <t>BANTUAN SAR</t>
   </si>
 </sst>
 </file>
@@ -134,9 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -452,113 +439,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57ED9BC9-370F-439D-9D8B-9EAAD58B38C7}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>80</v>
-      </c>
-      <c r="E2">
-        <v>82</v>
-      </c>
-      <c r="F2">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>82</v>
-      </c>
-      <c r="H2">
-        <v>82</v>
-      </c>
-      <c r="I2">
-        <v>82</v>
-      </c>
-      <c r="J2">
-        <v>82</v>
-      </c>
-      <c r="K2">
-        <v>82</v>
-      </c>
-      <c r="L2">
-        <v>82</v>
-      </c>
-      <c r="M2">
-        <v>82</v>
-      </c>
-      <c r="N2">
-        <v>818</v>
-      </c>
-      <c r="O2">
-        <v>81.8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
